--- a/data/3a_FAO_FPPI.xlsx
+++ b/data/3a_FAO_FPPI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Capstone Tetris DQLab\apps\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\Tetris-Proa\Capstone-Project\2022-Food-Crisis-Dashboard-main\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C97896-AAA1-4755-9200-9373B6CD3F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280CCF1D-FE28-4090-AEBD-9C206EE8F5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index_08" sheetId="1" r:id="rId1"/>
@@ -482,7 +482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G37"/>
     </sheetView>
   </sheetViews>
@@ -1463,8 +1463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F125EEBC-273D-4CE3-B96E-6373D796530B}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G31"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2285,28 +2285,91 @@
       <c r="A32" s="1">
         <v>44743</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32" s="3">
+        <v>140.6</v>
+      </c>
+      <c r="C32" s="3">
+        <v>124.1</v>
+      </c>
+      <c r="D32" s="3">
+        <v>146.5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>147.30000000000001</v>
+      </c>
+      <c r="F32" s="3">
+        <v>168.8</v>
+      </c>
+      <c r="G32" s="3">
+        <v>112.8</v>
+      </c>
+      <c r="H32" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44774</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" s="3">
+        <v>137.9</v>
+      </c>
+      <c r="C33" s="3">
+        <v>122</v>
+      </c>
+      <c r="D33" s="3">
+        <v>143.4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>145.6</v>
+      </c>
+      <c r="F33" s="3">
+        <v>163.30000000000001</v>
+      </c>
+      <c r="G33" s="3">
+        <v>110.5</v>
+      </c>
+      <c r="H33" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44805</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34" s="3">
+        <v>136.30000000000001</v>
+      </c>
+      <c r="C34" s="3">
+        <v>121.4</v>
+      </c>
+      <c r="D34" s="3">
+        <v>142.5</v>
+      </c>
+      <c r="E34" s="3">
+        <v>147.80000000000001</v>
+      </c>
+      <c r="F34" s="3">
+        <v>152.6</v>
+      </c>
+      <c r="G34" s="3">
+        <v>109.7</v>
+      </c>
+      <c r="H34" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44835</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44866</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44896</v>
       </c>
@@ -2320,8 +2383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECA873A-8C64-403F-B3B3-1AB390528AE4}">
   <dimension ref="B1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32:R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4236,132 +4299,186 @@
       <c r="B32" s="2">
         <v>130.10511546870418</v>
       </c>
+      <c r="C32" s="3">
+        <v>140.6</v>
+      </c>
       <c r="D32" s="4">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>8.0664657138867654E-2</v>
       </c>
       <c r="E32" s="2">
         <v>100.07827715169518</v>
       </c>
+      <c r="F32" s="3">
+        <v>124.1</v>
+      </c>
       <c r="G32" s="4">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>0.24002934035218779</v>
       </c>
       <c r="H32" s="2">
         <v>144.11797548639063</v>
       </c>
+      <c r="I32" s="3">
+        <v>146.5</v>
+      </c>
       <c r="J32" s="4">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>1.6528295693650691E-2</v>
       </c>
       <c r="K32" s="2">
         <v>148.21039499182567</v>
       </c>
+      <c r="L32" s="3">
+        <v>147.30000000000001</v>
+      </c>
       <c r="M32" s="4">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>-6.1425852881362751E-3</v>
       </c>
       <c r="N32" s="2">
         <v>164.79942909636068</v>
       </c>
+      <c r="O32" s="3">
+        <v>168.8</v>
+      </c>
       <c r="P32" s="4">
         <f t="shared" si="4"/>
-        <v>-1</v>
+        <v>2.4275392976635467E-2</v>
       </c>
       <c r="Q32" s="2">
         <v>88.063489993199624</v>
       </c>
+      <c r="R32" s="3">
+        <v>112.8</v>
+      </c>
       <c r="S32" s="4">
         <f t="shared" si="5"/>
-        <v>-1</v>
+        <v>0.28089404597422335</v>
       </c>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <v>121.10344435063858</v>
       </c>
+      <c r="C33" s="3">
+        <v>137.9</v>
+      </c>
       <c r="D33" s="4">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0.13869593667979646</v>
       </c>
       <c r="E33" s="2">
         <v>101.76473291849992</v>
       </c>
+      <c r="F33" s="3">
+        <v>122</v>
+      </c>
       <c r="G33" s="4">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>0.19884361213531465</v>
       </c>
       <c r="H33" s="2">
         <v>133.54864560697305</v>
       </c>
+      <c r="I33" s="3">
+        <v>143.4</v>
+      </c>
       <c r="J33" s="4">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>7.3766037448399088E-2</v>
       </c>
       <c r="K33" s="2">
         <v>136.51007774827985</v>
       </c>
+      <c r="L33" s="3">
+        <v>145.6</v>
+      </c>
       <c r="M33" s="4">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>6.6587920845533916E-2</v>
       </c>
       <c r="N33" s="2">
         <v>135.61861672624036</v>
       </c>
+      <c r="O33" s="3">
+        <v>163.30000000000001</v>
+      </c>
       <c r="P33" s="4">
         <f t="shared" si="4"/>
-        <v>-1</v>
+        <v>0.20411197180721338</v>
       </c>
       <c r="Q33" s="2">
         <v>90.394521703021951</v>
       </c>
+      <c r="R33" s="3">
+        <v>110.5</v>
+      </c>
       <c r="S33" s="4">
         <f t="shared" si="5"/>
-        <v>-1</v>
+        <v>0.22241921211809354</v>
       </c>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <v>112.76152808586448</v>
       </c>
+      <c r="C34" s="3">
+        <v>136.30000000000001</v>
+      </c>
       <c r="D34" s="4">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0.20874559181400676</v>
       </c>
       <c r="E34" s="2">
         <v>100.85210276076158</v>
       </c>
+      <c r="F34" s="3">
+        <v>121.4</v>
+      </c>
       <c r="G34" s="4">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>0.20374287374038741</v>
       </c>
       <c r="H34" s="2">
         <v>120.50416860191667</v>
       </c>
+      <c r="I34" s="3">
+        <v>142.5</v>
+      </c>
       <c r="J34" s="4">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0.18253170536154772</v>
       </c>
       <c r="K34" s="2">
         <v>125.32846978285959</v>
       </c>
+      <c r="L34" s="3">
+        <v>147.80000000000001</v>
+      </c>
       <c r="M34" s="4">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>0.17930108183778146</v>
       </c>
       <c r="N34" s="2">
         <v>120.59239830168778</v>
       </c>
+      <c r="O34" s="3">
+        <v>152.6</v>
+      </c>
       <c r="P34" s="4">
         <f t="shared" si="4"/>
-        <v>-1</v>
+        <v>0.26541972917926654</v>
       </c>
       <c r="Q34" s="2">
         <v>83.737378046272696</v>
       </c>
+      <c r="R34" s="3">
+        <v>109.7</v>
+      </c>
       <c r="S34" s="4">
         <f t="shared" si="5"/>
-        <v>-1</v>
+        <v>0.31004818349316526</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.3">
@@ -4505,14 +4622,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11CAA452-6032-4B81-8DA9-117EE2530AAD}">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="9.5546875" bestFit="1" customWidth="1"/>
@@ -4568,7 +4685,7 @@
         <v>172.89284972220244</v>
       </c>
       <c r="C2">
-        <v>132.26752331263424</v>
+        <v>132.26752331263401</v>
       </c>
       <c r="D2">
         <v>116.549371139534</v>

--- a/data/3a_FAO_FPPI.xlsx
+++ b/data/3a_FAO_FPPI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\Tetris-Proa\Capstone-Project\2022-Food-Crisis-Dashboard-main\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280CCF1D-FE28-4090-AEBD-9C206EE8F5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA14E769-D581-42A2-8E9D-6298A5B07958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,9 +141,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="#,##0.00\ ;\-#,##0.00\ ;&quot; -&quot;#\ ;@\ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -188,8 +189,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
@@ -200,9 +203,11 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{2E25C470-C06C-424E-ADF9-4CB5B088BCD5}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{50CEB340-A428-4118-B0E3-B4185AB96FA2}"/>
+    <cellStyle name="Normal 4 2" xfId="3" xr:uid="{1889F195-AC33-4A27-9070-05EA1F1308D0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4623,7 +4628,7 @@
   <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4682,40 +4687,40 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>172.89284972220244</v>
+        <v>120.01583017968713</v>
       </c>
       <c r="C2">
-        <v>132.26752331263401</v>
+        <v>135.59415474947579</v>
       </c>
       <c r="D2">
-        <v>116.549371139534</v>
+        <v>81.639300278078267</v>
       </c>
       <c r="E2">
-        <v>108.23962262999849</v>
+        <v>112.14742555131124</v>
       </c>
       <c r="F2">
-        <v>202.64252093203345</v>
+        <v>150.63436707886819</v>
       </c>
       <c r="G2">
-        <v>127.72217751630473</v>
+        <v>132.63261060211784</v>
       </c>
       <c r="H2">
-        <v>224.68752625056004</v>
+        <v>140.97686975332374</v>
       </c>
       <c r="I2">
-        <v>139.68728275196173</v>
+        <v>140.64762893177229</v>
       </c>
       <c r="J2">
-        <v>242.0116727200365</v>
+        <v>154.09675236708162</v>
       </c>
       <c r="K2">
-        <v>170.99891633122309</v>
+        <v>185.93144191456406</v>
       </c>
       <c r="L2">
-        <v>76.077292932958159</v>
+        <v>74.139185531871505</v>
       </c>
       <c r="M2">
-        <v>128.70363569592365</v>
+        <v>112.66751495566068</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -4723,40 +4728,40 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>181.79101057115804</v>
+        <v>128.02840441177617</v>
       </c>
       <c r="C3">
-        <v>141.89430740973066</v>
+        <v>141.23544955718793</v>
       </c>
       <c r="D3">
-        <v>117.43755978810289</v>
+        <v>79.509951512161919</v>
       </c>
       <c r="E3">
-        <v>112.85393180149448</v>
+        <v>113.87343719202681</v>
       </c>
       <c r="F3">
-        <v>201.2990334179872</v>
+        <v>149.87806700361918</v>
       </c>
       <c r="G3">
-        <v>137.60564172402147</v>
+        <v>141.52957659081716</v>
       </c>
       <c r="H3">
-        <v>248.22311792975685</v>
+        <v>160.82642185718515</v>
       </c>
       <c r="I3">
-        <v>145.89277803623963</v>
+        <v>145.27477635272047</v>
       </c>
       <c r="J3">
-        <v>259.48094761719335</v>
+        <v>168.63237904158967</v>
       </c>
       <c r="K3">
-        <v>206.77679037726645</v>
+        <v>201.71767545192617</v>
       </c>
       <c r="L3">
-        <v>75.285594873223744</v>
+        <v>83.607712565574616</v>
       </c>
       <c r="M3">
-        <v>120.86688773093319</v>
+        <v>110.53112881402261</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -4764,40 +4769,40 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>190.304721233251</v>
+        <v>132.06947096045573</v>
       </c>
       <c r="C4">
-        <v>167.8063778059651</v>
+        <v>159.71318001343587</v>
       </c>
       <c r="D4">
-        <v>126.84464659948762</v>
+        <v>84.725374475329687</v>
       </c>
       <c r="E4">
-        <v>120.01271628478601</v>
+        <v>119.322155283002</v>
       </c>
       <c r="F4">
-        <v>208.88596872861564</v>
+        <v>152.63293596208666</v>
       </c>
       <c r="G4">
-        <v>143.64207126461562</v>
+        <v>145.83118903175716</v>
       </c>
       <c r="H4">
-        <v>255.49105809533364</v>
+        <v>163.33153678076241</v>
       </c>
       <c r="I4">
-        <v>173.56101859813353</v>
+        <v>170.13127610337708</v>
       </c>
       <c r="J4">
-        <v>271.04304909824532</v>
+        <v>176.60164719011681</v>
       </c>
       <c r="K4">
-        <v>294.79865626126576</v>
+        <v>251.83127168981505</v>
       </c>
       <c r="L4">
-        <v>76.562263579966654</v>
+        <v>81.689252839791621</v>
       </c>
       <c r="M4">
-        <v>159.46334904690602</v>
+        <v>117.91396993406418</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -4805,40 +4810,40 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>187.02890611160771</v>
+        <v>130.37540375996133</v>
       </c>
       <c r="C5">
-        <v>171.23234626969048</v>
+        <v>158.43504100824666</v>
       </c>
       <c r="D5">
-        <v>130.1707484901188</v>
+        <v>86.151071054875445</v>
       </c>
       <c r="E5">
-        <v>125.79604250060414</v>
+        <v>121.90191502509094</v>
       </c>
       <c r="F5">
-        <v>208.02809975335182</v>
+        <v>148.94895083980435</v>
       </c>
       <c r="G5">
-        <v>153.19472400238107</v>
+        <v>146.68927944362707</v>
       </c>
       <c r="H5">
-        <v>249.89735899339024</v>
+        <v>162.73581812646003</v>
       </c>
       <c r="I5">
-        <v>170.27724654963839</v>
+        <v>169.67669651563907</v>
       </c>
       <c r="J5">
-        <v>253.75874224006751</v>
+        <v>169.40502328163345</v>
       </c>
       <c r="K5">
-        <v>292.60762164319505</v>
+        <v>237.53173615946218</v>
       </c>
       <c r="L5">
-        <v>71.824188899606284</v>
+        <v>77.731374783813834</v>
       </c>
       <c r="M5">
-        <v>192.37837585708286</v>
+        <v>121.543706497993</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -4846,40 +4851,40 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>183.15876556242904</v>
+        <v>130.03518233921287</v>
       </c>
       <c r="C6">
-        <v>173.30001787066976</v>
+        <v>158.05282975550662</v>
       </c>
       <c r="D6">
-        <v>133.8877741723017</v>
+        <v>91.032746528381097</v>
       </c>
       <c r="E6">
-        <v>128.54956003830176</v>
+        <v>122.8732841909855</v>
       </c>
       <c r="F6">
-        <v>202.4424582819797</v>
+        <v>144.2598033258472</v>
       </c>
       <c r="G6">
-        <v>152.36472632730289</v>
+        <v>144.17798818600474</v>
       </c>
       <c r="H6">
-        <v>232.25754546638018</v>
+        <v>157.44070678663013</v>
       </c>
       <c r="I6">
-        <v>177.0276723790694</v>
+        <v>173.52074886092331</v>
       </c>
       <c r="J6">
-        <v>251.91908350627784</v>
+        <v>172.01814139872513</v>
       </c>
       <c r="K6">
-        <v>294.77207890697662</v>
+        <v>229.24090548152569</v>
       </c>
       <c r="L6">
-        <v>71.761151316128064</v>
+        <v>74.701783691925201</v>
       </c>
       <c r="M6">
-        <v>177.44396440921122</v>
+        <v>120.38756727908276</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -4887,40 +4892,40 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>186.40476161590846</v>
+        <v>132.52861651196463</v>
       </c>
       <c r="C7">
-        <v>165.40450739701461</v>
+        <v>154.70830393130083</v>
       </c>
       <c r="D7">
-        <v>131.97802712935118</v>
+        <v>92.977562586346437</v>
       </c>
       <c r="E7">
-        <v>131.53485987139047</v>
+        <v>125.92320210645855</v>
       </c>
       <c r="F7">
-        <v>202.67197128093451</v>
+        <v>143.89822620373437</v>
       </c>
       <c r="G7">
-        <v>152.31630237559989</v>
+        <v>150.18180663787297</v>
       </c>
       <c r="H7">
-        <v>236.46670052996379</v>
+        <v>160.28729664983305</v>
       </c>
       <c r="I7">
-        <v>170.93536351614173</v>
+        <v>166.33655649308153</v>
       </c>
       <c r="J7">
-        <v>262.4713975714472</v>
+        <v>178.31613778641312</v>
       </c>
       <c r="K7">
-        <v>244.52863068416048</v>
+        <v>211.79518246436641</v>
       </c>
       <c r="L7">
-        <v>78.737636321980403</v>
+        <v>75.038003068528681</v>
       </c>
       <c r="M7">
-        <v>156.50372172111301</v>
+        <v>117.2848384263868</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -4928,22 +4933,40 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>178.50351713077657</v>
+        <v>130.10511546870418</v>
+      </c>
+      <c r="C8">
+        <v>140.57196827751267</v>
       </c>
       <c r="D8">
-        <v>139.39345677886897</v>
+        <v>100.07827715169518</v>
+      </c>
+      <c r="E8">
+        <v>124.05211425493449</v>
       </c>
       <c r="F8">
-        <v>202.18058161373565</v>
+        <v>144.11797548639063</v>
+      </c>
+      <c r="G8">
+        <v>146.465425519288</v>
       </c>
       <c r="H8">
-        <v>212.16990688342409</v>
+        <v>148.21039499182567</v>
+      </c>
+      <c r="I8">
+        <v>147.25665377330955</v>
       </c>
       <c r="J8">
-        <v>233.93761597109483</v>
+        <v>164.79942909636068</v>
+      </c>
+      <c r="K8">
+        <v>168.82042441226025</v>
       </c>
       <c r="L8">
-        <v>88.660436137071656</v>
+        <v>88.063489993199624</v>
+      </c>
+      <c r="M8">
+        <v>112.84138457750583</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -4951,22 +4974,40 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>166.20786817721273</v>
+        <v>121.10344435063858</v>
+      </c>
+      <c r="C9">
+        <v>137.87328362567564</v>
       </c>
       <c r="D9">
-        <v>137.17999691941759</v>
+        <v>101.76473291849992</v>
+      </c>
+      <c r="E9">
+        <v>121.97552102133642</v>
       </c>
       <c r="F9">
-        <v>189.97507208054998</v>
+        <v>133.54864560697305</v>
+      </c>
+      <c r="G9">
+        <v>143.35160863134098</v>
       </c>
       <c r="H9">
-        <v>196.00501477881156</v>
+        <v>136.51007774827985</v>
+      </c>
+      <c r="I9">
+        <v>145.57553656155289</v>
       </c>
       <c r="J9">
-        <v>184.40039704469132</v>
+        <v>135.61861672624036</v>
+      </c>
+      <c r="K9">
+        <v>163.32354213869706</v>
       </c>
       <c r="L9">
-        <v>108.58220211161371</v>
+        <v>90.394521703021951</v>
+      </c>
+      <c r="M9">
+        <v>110.47422078709369</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -4974,22 +5015,40 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>154.44709807546207</v>
+        <v>112.76152808586448</v>
+      </c>
+      <c r="C10">
+        <v>136.34680115267727</v>
       </c>
       <c r="D10">
-        <v>134.79541335058411</v>
+        <v>100.85210276076158</v>
+      </c>
+      <c r="E10">
+        <v>121.37665029534391</v>
       </c>
       <c r="F10">
-        <v>171.30713160773851</v>
+        <v>120.50416860191667</v>
+      </c>
+      <c r="G10">
+        <v>142.52981888785703</v>
       </c>
       <c r="H10">
-        <v>172.77352740499526</v>
+        <v>125.32846978285959</v>
+      </c>
+      <c r="I10">
+        <v>147.78096154806207</v>
       </c>
       <c r="J10">
-        <v>168.18204353525957</v>
+        <v>120.59239830168778</v>
+      </c>
+      <c r="K10">
+        <v>152.57278473300983</v>
       </c>
       <c r="L10">
-        <v>111.98029556650278</v>
+        <v>83.737378046272696</v>
+      </c>
+      <c r="M10">
+        <v>109.67569831166102</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -4997,22 +5056,22 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>130.25387672205284</v>
+        <v>97.58430378812001</v>
       </c>
       <c r="D11">
-        <v>129.08412374098097</v>
+        <v>95.0446953002767</v>
       </c>
       <c r="F11">
-        <v>148.73869690387343</v>
+        <v>106.95039605821971</v>
       </c>
       <c r="H11">
-        <v>131.39335478120967</v>
+        <v>104.92750466809048</v>
       </c>
       <c r="J11">
-        <v>126.84568532603429</v>
+        <v>92.213750716966629</v>
       </c>
       <c r="L11">
-        <v>102.23766938727653</v>
+        <v>73.644099151024278</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -5020,22 +5079,22 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>115.58946569518605</v>
+        <v>89.547427171324472</v>
       </c>
       <c r="D12">
-        <v>121.24274260990681</v>
+        <v>87.369664654758026</v>
       </c>
       <c r="F12">
-        <v>129.68808952771977</v>
+        <v>97.775588495585708</v>
       </c>
       <c r="H12">
-        <v>112.49257120364931</v>
+        <v>95.992499785914191</v>
       </c>
       <c r="J12">
-        <v>104.70084716461146</v>
+        <v>82.029949023694499</v>
       </c>
       <c r="L12">
-        <v>102.72439607933943</v>
+        <v>74.88181510314233</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -5043,32 +5102,26 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>109.42654332239702</v>
+        <v>85.972977723222186</v>
       </c>
       <c r="D13">
-        <v>114.41969846468831</v>
+        <v>80.803362828030629</v>
       </c>
       <c r="F13">
-        <v>116.14786287655272</v>
+        <v>94.890291244882548</v>
       </c>
       <c r="H13">
-        <v>111.45689610854572</v>
+        <v>95.134216935619691</v>
       </c>
       <c r="J13">
-        <v>94.632863761278315</v>
+        <v>78.550058284261567</v>
       </c>
       <c r="L13">
-        <v>101.54738878143117</v>
+        <v>72.715812186935736</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
@@ -5079,7 +5132,7 @@
       <c r="B16" s="2"/>
       <c r="D16">
         <f>MAX(B2:M13)</f>
-        <v>294.79865626126576</v>
+        <v>251.83127168981505</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
